--- a/formatted_locations.xlsx
+++ b/formatted_locations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,16 @@
           <t>Client</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Price_Per_Unit</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Total_NIS</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -532,6 +542,16 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -580,6 +600,16 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -628,6 +658,16 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>19.5</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>19.5</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -676,6 +716,16 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>15.6</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>15.6</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -724,6 +774,16 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -772,6 +832,16 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>9.9</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -820,6 +890,16 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -868,6 +948,16 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>23.4</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>23.4</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -916,6 +1006,16 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,6 +1064,16 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1012,6 +1122,16 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1060,6 +1180,16 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1108,6 +1238,540 @@
           <t>30843</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2 על גג המשרד</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>               </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>מגנים מעורב דוגמאות  -הולנד</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">סוכן 7 שי טולדנו שי </t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>30843</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>חדר302</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6954110251026  </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>GT-302-4B דובי מעורב 100 ס''מ 10 בקרטון******</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">סוכן 7 שי טולדנו שי </t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>30843</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1D-4/3 + 2K-4/2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6957702315045  </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>משאבה לכדורים XR-15-4**** בקרטון 200</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">סוכן 7 שי טולדנו שי </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>30843</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>3.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>מס' פריט/קטלוגי</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>תאור פריט</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>שם לקוח</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>מחיר ליחידה</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>סה"כ ש"ח</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>הזמנה</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>מס' לקוח</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>292.09999999999997</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>292.09999999999997</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
